--- a/data/trans_camb/P1801-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1801-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1801-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1801-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>48,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>67,64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53,45</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>71,79</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50,96</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69,76</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,87; 54,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,5; 73,56</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47,02; 59,38</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67,58; 76,21</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46,66; 55,23</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65,96; 73,36</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -638,6 +804,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>46,72</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25,45</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57,79</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30,18</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52,37</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,89</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,98; 51,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,14; 30,3</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>53,59; 62,28</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26,68; 33,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49,09; 55,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 30,79</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -734,6 +1020,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>42,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>65,67</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>55,56</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>69,3</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49,36</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67,61</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,37; 48,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,13; 71,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49,74; 60,71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>65,28; 73,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45,6; 53,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>64,25; 71,05</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -830,6 +1236,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>55,2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>52,17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61,6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>50,95</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58,47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51,47</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,92; 60,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,81; 58,95</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56,37; 66,73</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44,85; 56,8</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54,57; 62,19</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>46,25; 55,6</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -926,6 +1452,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -945,12 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>45,94</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>59,22</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>54,57</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>67,72</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>50,33</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>63,82</t>
         </is>
       </c>
     </row>
@@ -968,12 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,03; 52,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,98; 64,99</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>47,59; 60,19</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>62,67; 72,59</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>45,32; 55,35</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>59,64; 67,79</t>
         </is>
       </c>
     </row>
@@ -991,12 +1607,42 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1022,6 +1668,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1041,12 +1717,42 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>52,52</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>61,53</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>59,77</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>69,36</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>56,21</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>65,43</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,44; 58,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,96; 67,27</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>53,67; 65,36</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>64,26; 73,97</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>51,98; 60,18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>61,47; 69,33</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1118,6 +1884,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1137,12 +1933,42 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
+          <t>35,51</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>61,52</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>49,15</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>74,16</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>42,51</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>68,62</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1986,42 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,72; 39,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,87; 65,91</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>44,9; 53,05</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>69,0; 84,08</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>39,64; 45,45</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>64,85; 76,23</t>
         </is>
       </c>
     </row>
@@ -1183,12 +2039,42 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1214,6 +2100,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1233,12 +2149,42 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
+          <t>50,4</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>37,48</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>62,99</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>43,05</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>56,88</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>40,28</t>
         </is>
       </c>
     </row>
@@ -1256,12 +2202,42 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,71; 53,85</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,35; 50,98</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>59,44; 66,31</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>39,99; 46,35</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>54,23; 59,34</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>37,47; 46,76</t>
         </is>
       </c>
     </row>
@@ -1279,12 +2255,42 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1310,6 +2316,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1329,12 +2365,42 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
+          <t>46,51</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>49,71</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>57,12</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>56,67</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>51,93</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>53,39</t>
         </is>
       </c>
     </row>
@@ -1352,12 +2418,42 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,91; 48,29</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,75; 52,86</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>55,38; 58,92</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>54,71; 60,87</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>50,81; 53,32</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>51,97; 56,2</t>
         </is>
       </c>
     </row>
@@ -1375,12 +2471,42 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1406,6 +2532,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1415,12 +2571,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P1801-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1801-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,64</t>
+          <t>66,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,79</t>
+          <t>71,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>69,76</t>
+          <t>68,9</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,5; 73,56</t>
+          <t>59,59; 73,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,58; 76,21</t>
+          <t>66,61; 76,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,96; 73,36</t>
+          <t>64,16; 72,94</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,45</t>
+          <t>24,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,18</t>
+          <t>30,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,89</t>
+          <t>27,48</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,14; 30,3</t>
+          <t>20,45; 29,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,68; 33,84</t>
+          <t>26,77; 33,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,99; 30,79</t>
+          <t>24,53; 30,46</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,67</t>
+          <t>65,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>69,3</t>
+          <t>69,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>67,61</t>
+          <t>67,24</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,13; 71,23</t>
+          <t>59,22; 70,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,28; 73,86</t>
+          <t>65,24; 73,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64,25; 71,05</t>
+          <t>63,82; 70,77</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>52,17</t>
+          <t>51,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,95</t>
+          <t>42,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,47</t>
+          <t>46,01</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,81; 58,95</t>
+          <t>44,28; 58,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,85; 56,8</t>
+          <t>25,96; 52,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,25; 55,6</t>
+          <t>32,74; 52,49</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>59,22</t>
+          <t>59,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>67,72</t>
+          <t>68,24</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>63,82</t>
+          <t>64,17</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,98; 64,99</t>
+          <t>53,18; 65,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,67; 72,59</t>
+          <t>63,49; 72,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>59,64; 67,79</t>
+          <t>60,12; 67,91</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>61,53</t>
+          <t>60,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>69,36</t>
+          <t>69,25</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>65,43</t>
+          <t>64,97</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>55,96; 67,27</t>
+          <t>55,36; 66,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>64,26; 73,97</t>
+          <t>64,09; 73,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>61,47; 69,33</t>
+          <t>60,95; 69,0</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>61,52</t>
+          <t>61,02</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>74,16</t>
+          <t>77,25</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>68,62</t>
+          <t>70,38</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>56,87; 65,91</t>
+          <t>56,34; 65,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>69,0; 84,08</t>
+          <t>69,1; 88,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>64,85; 76,23</t>
+          <t>64,59; 80,89</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>37,48</t>
+          <t>51,09</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>43,05</t>
+          <t>43,19</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>40,28</t>
+          <t>47,65</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>32,35; 50,98</t>
+          <t>32,63; 77,04</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>39,99; 46,35</t>
+          <t>40,2; 46,34</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>37,47; 46,76</t>
+          <t>37,85; 67,54</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>49,71</t>
+          <t>52,85</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>56,67</t>
+          <t>57,11</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>53,39</t>
+          <t>55,04</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>47,75; 52,86</t>
+          <t>48,74; 63,18</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>54,71; 60,87</t>
+          <t>53,23; 64,1</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>51,97; 56,2</t>
+          <t>51,95; 61,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1801-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1801-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,87; 54,62</t>
+          <t>42,6; 54,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,59; 73,33</t>
+          <t>59,96; 73,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,02; 59,38</t>
+          <t>47,15; 59,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,61; 76,12</t>
+          <t>65,86; 76,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,66; 55,23</t>
+          <t>46,38; 55,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,16; 72,94</t>
+          <t>64,02; 72,7</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,98; 51,2</t>
+          <t>42,86; 51,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,45; 29,75</t>
+          <t>20,49; 29,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,59; 62,28</t>
+          <t>53,83; 62,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,77; 33,95</t>
+          <t>26,99; 34,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,09; 55,42</t>
+          <t>49,36; 55,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,53; 30,46</t>
+          <t>24,55; 30,93</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,37; 48,26</t>
+          <t>36,94; 47,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,22; 70,61</t>
+          <t>59,73; 70,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,74; 60,71</t>
+          <t>49,83; 60,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,24; 73,8</t>
+          <t>64,68; 73,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,6; 53,45</t>
+          <t>45,93; 53,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,82; 70,77</t>
+          <t>63,68; 70,72</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,92; 60,47</t>
+          <t>50,4; 60,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,28; 58,79</t>
+          <t>44,66; 58,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,37; 66,73</t>
+          <t>55,6; 66,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,96; 52,99</t>
+          <t>26,98; 53,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,57; 62,19</t>
+          <t>54,95; 61,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,74; 52,49</t>
+          <t>34,79; 53,28</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>40,03; 52,21</t>
+          <t>39,16; 53,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>53,18; 65,03</t>
+          <t>52,44; 65,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>47,59; 60,19</t>
+          <t>47,97; 60,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,49; 72,96</t>
+          <t>63,54; 72,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>45,32; 55,35</t>
+          <t>45,54; 55,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>60,12; 67,91</t>
+          <t>59,74; 67,82</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>46,44; 58,7</t>
+          <t>46,24; 58,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>55,36; 66,74</t>
+          <t>55,83; 66,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>53,67; 65,36</t>
+          <t>53,46; 65,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>64,09; 73,85</t>
+          <t>64,24; 74,23</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>51,98; 60,18</t>
+          <t>51,67; 60,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>60,95; 69,0</t>
+          <t>60,68; 68,62</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>31,72; 39,85</t>
+          <t>31,71; 39,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>56,34; 65,65</t>
+          <t>56,31; 65,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>44,9; 53,05</t>
+          <t>45,54; 52,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>69,1; 88,71</t>
+          <t>68,8; 89,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>39,64; 45,45</t>
+          <t>39,77; 45,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>64,59; 80,89</t>
+          <t>64,79; 80,32</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>46,71; 53,85</t>
+          <t>46,96; 54,16</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>32,63; 77,04</t>
+          <t>32,49; 77,99</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>59,44; 66,31</t>
+          <t>59,79; 66,53</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>40,2; 46,34</t>
+          <t>39,91; 46,55</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>54,23; 59,34</t>
+          <t>54,63; 59,45</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>37,85; 67,54</t>
+          <t>37,78; 67,78</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>44,91; 48,29</t>
+          <t>44,88; 48,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>48,74; 63,18</t>
+          <t>48,68; 65,04</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>55,38; 58,92</t>
+          <t>55,37; 58,68</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>53,23; 64,1</t>
+          <t>53,53; 65,39</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>50,81; 53,32</t>
+          <t>50,74; 53,2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>51,95; 61,98</t>
+          <t>51,88; 60,7</t>
         </is>
       </c>
     </row>
